--- a/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
+++ b/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\Entregables Para Henry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF30B8CB-06B2-4183-85DF-A3AED979E7C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2ABE7-18CB-425B-85F4-992A166D8368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -42,24 +42,12 @@
     <t>OBJETOS</t>
   </si>
   <si>
-    <t>Menu Principal</t>
-  </si>
-  <si>
     <t>DAVIVIENDA</t>
   </si>
   <si>
     <t>CR38010400141526566616</t>
   </si>
   <si>
-    <t>VIDAL Jimenez Rojas</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Centro de Costos</t>
-  </si>
-  <si>
     <t>Fecha y Hora Actual</t>
   </si>
   <si>
@@ -72,46 +60,71 @@
     <t>Rol Asignado</t>
   </si>
   <si>
-    <t>RF-06</t>
-  </si>
-  <si>
-    <t>Nombre del documento</t>
-  </si>
-  <si>
-    <t>Asunto</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>Numero de Referencia</t>
-  </si>
-  <si>
-    <t>Status del documento</t>
-  </si>
-  <si>
-    <t>Caja de texto con la informacion del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista de documentos </t>
-  </si>
-  <si>
-    <t>Boton Crear Nuevo Documento</t>
-  </si>
-  <si>
-    <t>Boton Subir documento recibido</t>
-  </si>
-  <si>
-    <t>Ver detalles se obtiene un pagina con toda la información necesaria del sistema, y se encontrara en detalle la información del proyecto y una lista con referencia de cada documento subido y creado al proyecto en revisión, en esta sección se cuentan con dos opciones:
-• Crear Documento
-• Subir documento Recibido.</t>
+    <t>RF-09</t>
+  </si>
+  <si>
+    <t>En la opción de cargar documento , encontramos un boton donde a la hora de subir un documento previamnete diseñado por la creacion del machote, en este el usuario indicara si es firma digital o firma manual, si es firma digital este valida si existe la firma digital, en caso de no existir la firma tendra un aviso de que no hay firma digital lo cual sera un paso necesario para poder subir el docuemnto en formato pdf, si la firma es manual solamente se validara si el docuemnto es en pdf</t>
+  </si>
+  <si>
+    <t>Menú Principal</t>
+  </si>
+  <si>
+    <t>Nombre Cliente</t>
+  </si>
+  <si>
+    <t>Nombre de la persona de contacto</t>
+  </si>
+  <si>
+    <t>Numero de Teléfono</t>
+  </si>
+  <si>
+    <t>Correo Electronico</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>Botón registrar</t>
+  </si>
+  <si>
+    <t>Boton Descartar</t>
+  </si>
+  <si>
+    <t>RF-16</t>
+  </si>
+  <si>
+    <t>En esta sección se contará con toda la información del sistema, además contará con filtros para buscar documentos de acuerdo con su número de registro, centro de costos, año, cliente, y tendrá las siguientes opciones:</t>
+  </si>
+  <si>
+    <t>Filto numero referencia</t>
+  </si>
+  <si>
+    <t>Filtro Año</t>
+  </si>
+  <si>
+    <t>Filtro Centro Costos</t>
+  </si>
+  <si>
+    <t>Filtro Cliente</t>
+  </si>
+  <si>
+    <t>Filtro Proyecto</t>
+  </si>
+  <si>
+    <t>Lista de documentos</t>
+  </si>
+  <si>
+    <t>Ver detalles</t>
+  </si>
+  <si>
+    <t>Modificar detalles del documento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +136,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,11 +183,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,13 +199,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,219 +539,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F3CCD-3DE1-4D13-AD96-4E84CCAA0BEB}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30">
-        <v>1570967</v>
+      <c r="L30" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="40">
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
@@ -730,10 +940,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
+++ b/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\Entregables Para Henry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2ABE7-18CB-425B-85F4-992A166D8368}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2C3E6-1866-4738-8B7A-915992657CAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -90,34 +90,13 @@
     <t>Boton Descartar</t>
   </si>
   <si>
-    <t>RF-16</t>
-  </si>
-  <si>
-    <t>En esta sección se contará con toda la información del sistema, además contará con filtros para buscar documentos de acuerdo con su número de registro, centro de costos, año, cliente, y tendrá las siguientes opciones:</t>
-  </si>
-  <si>
-    <t>Filto numero referencia</t>
-  </si>
-  <si>
-    <t>Filtro Año</t>
-  </si>
-  <si>
-    <t>Filtro Centro Costos</t>
-  </si>
-  <si>
-    <t>Filtro Cliente</t>
-  </si>
-  <si>
-    <t>Filtro Proyecto</t>
-  </si>
-  <si>
-    <t>Lista de documentos</t>
-  </si>
-  <si>
-    <t>Ver detalles</t>
-  </si>
-  <si>
-    <t>Modificar detalles del documento</t>
+    <t>RF-23</t>
+  </si>
+  <si>
+    <t>En esta sección se contará con toda la información del sistema, aparte contara con una opcion de dar de baja al usuario, lo cual el sistema no permitiria mas su ingreso, pero no se elimina ya que el usuario estara registrado en reportes y actividades que haya realizado.</t>
+  </si>
+  <si>
+    <t>Dar de Baja</t>
   </si>
 </sst>
 </file>
@@ -156,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -179,11 +158,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,29 +206,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F3CCD-3DE1-4D13-AD96-4E84CCAA0BEB}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,307 +577,293 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="13" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
@@ -900,28 +906,8 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:F4"/>
@@ -938,8 +924,28 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
+++ b/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\Entregables Para Henry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2C3E6-1866-4738-8B7A-915992657CAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44151EFA-A4A4-4496-BB0F-B8BFE2A25A0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -51,15 +51,9 @@
     <t>Fecha y Hora Actual</t>
   </si>
   <si>
-    <t>Titulo del sistema</t>
-  </si>
-  <si>
     <t>Nombre y apellido del usuario</t>
   </si>
   <si>
-    <t>Rol Asignado</t>
-  </si>
-  <si>
     <t>RF-09</t>
   </si>
   <si>
@@ -90,13 +84,22 @@
     <t>Boton Descartar</t>
   </si>
   <si>
-    <t>RF-23</t>
-  </si>
-  <si>
-    <t>En esta sección se contará con toda la información del sistema, aparte contara con una opcion de dar de baja al usuario, lo cual el sistema no permitiria mas su ingreso, pero no se elimina ya que el usuario estara registrado en reportes y actividades que haya realizado.</t>
-  </si>
-  <si>
-    <t>Dar de Baja</t>
+    <t>Título del sistema</t>
+  </si>
+  <si>
+    <t>RF-28</t>
+  </si>
+  <si>
+    <t>En esta sección se contará con toda la información del sistema,  ademas tendrá la posibilidad de generar reportes de registro de ingresos y salidas de usuarios del sistema, otro sobre los movimentos de gestion  realizados por usuario, y uno con formato para audiotorias.</t>
+  </si>
+  <si>
+    <t>Reporte Ingresos</t>
+  </si>
+  <si>
+    <t>Reporte Movimientos</t>
+  </si>
+  <si>
+    <t>Reporte Auditoria</t>
   </si>
 </sst>
 </file>
@@ -210,40 +213,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F3CCD-3DE1-4D13-AD96-4E84CCAA0BEB}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,36 +597,36 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="H3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -646,224 +649,226 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="H6" s="6" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="6" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="H10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="H12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
@@ -906,46 +911,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
+++ b/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\Entregables Para Henry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44151EFA-A4A4-4496-BB0F-B8BFE2A25A0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A64D7-EB66-4B7D-B978-4400BF8D7C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -54,36 +54,9 @@
     <t>Nombre y apellido del usuario</t>
   </si>
   <si>
-    <t>RF-09</t>
-  </si>
-  <si>
-    <t>En la opción de cargar documento , encontramos un boton donde a la hora de subir un documento previamnete diseñado por la creacion del machote, en este el usuario indicara si es firma digital o firma manual, si es firma digital este valida si existe la firma digital, en caso de no existir la firma tendra un aviso de que no hay firma digital lo cual sera un paso necesario para poder subir el docuemnto en formato pdf, si la firma es manual solamente se validara si el docuemnto es en pdf</t>
-  </si>
-  <si>
     <t>Menú Principal</t>
   </si>
   <si>
-    <t>Nombre Cliente</t>
-  </si>
-  <si>
-    <t>Nombre de la persona de contacto</t>
-  </si>
-  <si>
-    <t>Numero de Teléfono</t>
-  </si>
-  <si>
-    <t>Correo Electronico</t>
-  </si>
-  <si>
-    <t>observaciones</t>
-  </si>
-  <si>
-    <t>Botón registrar</t>
-  </si>
-  <si>
-    <t>Boton Descartar</t>
-  </si>
-  <si>
     <t>Título del sistema</t>
   </si>
   <si>
@@ -100,6 +73,27 @@
   </si>
   <si>
     <t>Reporte Auditoria</t>
+  </si>
+  <si>
+    <t>RF-26
+Roles</t>
+  </si>
+  <si>
+    <t>En esta sección se contará con toda la información del sistema, aparte contara con el registro de roles y permisos con los que contará el usuario que ingresara al sistema, Cuenta con dos opciones:
+• Crear nuevo rol. 
+• Consultar rol.</t>
+  </si>
+  <si>
+    <t>Fecha y hora Actual</t>
+  </si>
+  <si>
+    <t>Menú principal</t>
+  </si>
+  <si>
+    <t>Crear nuevo Rol</t>
+  </si>
+  <si>
+    <t>Consultar rol</t>
   </si>
 </sst>
 </file>
@@ -138,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -187,66 +181,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F3CCD-3DE1-4D13-AD96-4E84CCAA0BEB}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,84 +712,84 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="H2" s="3" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>18</v>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="H3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="3" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>17</v>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -665,15 +797,15 @@
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="H7" s="6" t="s">
-        <v>11</v>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -681,15 +813,15 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="H8" s="9" t="s">
-        <v>12</v>
+      <c r="H8" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -697,15 +829,15 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
+      <c r="H9" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -713,15 +845,15 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -729,15 +861,15 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -745,97 +877,93 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -847,7 +975,7 @@
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -859,7 +987,7 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -871,32 +999,32 @@
       <c r="L21" s="13"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
@@ -911,46 +1039,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
+++ b/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\Entregables Para Henry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A64D7-EB66-4B7D-B978-4400BF8D7C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9CEB46-3C42-4C14-9C55-FA146A5E3DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -94,13 +94,43 @@
   </si>
   <si>
     <t>Consultar rol</t>
+  </si>
+  <si>
+    <t>Objeto</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>Procesador</t>
+  </si>
+  <si>
+    <t>Intel Dual Core</t>
+  </si>
+  <si>
+    <t>Memoria RAM</t>
+  </si>
+  <si>
+    <t>Disco Duro</t>
+  </si>
+  <si>
+    <t>Sistema Operativo</t>
+  </si>
+  <si>
+    <t>Windows 10 64bits</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>8GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +153,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -284,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,27 +363,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -359,26 +420,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,15 +746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F3CCD-3DE1-4D13-AD96-4E84CCAA0BEB}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="27.28515625" customWidth="1"/>
@@ -712,179 +765,179 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="29" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="H3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="H5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="H10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="H11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="31"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
@@ -892,111 +945,111 @@
     </row>
     <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -1037,14 +1090,75 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
@@ -1052,33 +1166,12 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
+++ b/Documentacion/Entregables Para Henry/Plantilla de Referencias.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO_SIGEDOC\SIGEDOC\Documentacion\Entregables Para Henry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9CEB46-3C42-4C14-9C55-FA146A5E3DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD9233-E6DF-4741-A6B1-D16EEA0B2B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{05819A6B-DF8F-4A1E-9F97-98F9155DCADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>REQUERIMIENTO</t>
   </si>
@@ -125,12 +126,129 @@
   <si>
     <t>8GB</t>
   </si>
+  <si>
+    <t xml:space="preserve">Digitador </t>
+  </si>
+  <si>
+    <t>Consultor</t>
+  </si>
+  <si>
+    <t>Menú del Sistema/Perfil del Usuario</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Modulo Loging</t>
+  </si>
+  <si>
+    <t>Pagina inicial</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Crear Nuevo Proyecto</t>
+  </si>
+  <si>
+    <t>Consultar Proyecto</t>
+  </si>
+  <si>
+    <t>Ver Detalles/Agregar Documentos</t>
+  </si>
+  <si>
+    <t>Crear Documento Nuevo</t>
+  </si>
+  <si>
+    <t>Crear Machote</t>
+  </si>
+  <si>
+    <t>Subir Documento Recibido</t>
+  </si>
+  <si>
+    <t>Modificar Detalles del documento</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Crear Nuevo Cliente</t>
+  </si>
+  <si>
+    <t>Consultar Cliente</t>
+  </si>
+  <si>
+    <t>Modificar Detalles del Cliente</t>
+  </si>
+  <si>
+    <t>Cargar Documento creado</t>
+  </si>
+  <si>
+    <t>Consultar Documentos</t>
+  </si>
+  <si>
+    <t>Ver detalles de Docuemento</t>
+  </si>
+  <si>
+    <t>Modificar Detalles del Documento</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Ingresar usuario nuevo</t>
+  </si>
+  <si>
+    <t>Consultar Usuario</t>
+  </si>
+  <si>
+    <t>Modificar el usuario</t>
+  </si>
+  <si>
+    <t>Inhabilitar Usuario</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Crear Nuevo Rol</t>
+  </si>
+  <si>
+    <t>Modificar Rol</t>
+  </si>
+  <si>
+    <t>Consultar Rol</t>
+  </si>
+  <si>
+    <t>Inhabilitar Rol</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Reporte de bitacora ingresos y salida</t>
+  </si>
+  <si>
+    <t>Reporte de Movimientos usuario</t>
+  </si>
+  <si>
+    <t>Reporte Auditoria De documentos por proyecto</t>
+  </si>
+  <si>
+    <t>Formulario envido de contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerca de </t>
+  </si>
+  <si>
+    <t>Salir</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +278,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -323,11 +455,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,26 +550,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,18 +598,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,6 +644,6416 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="547" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278713A6-2A0E-40FA-9DFA-0E6B06FD9F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="13039725"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="548" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5005F25-C637-4848-A157-C944C23E4524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="13049250"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="549" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4B2A28-AF52-4E8E-B97F-C8B2F489548F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6400800" y="13039725"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="550" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28F7C7B-9D25-4CE4-AD61-BEC6C886D111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="13373100"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="551" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F2525D-0B9B-4F69-9196-7D7711179C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="13382625"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="552" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95CD6F1-59D5-4C2C-9A1B-320458FE9964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6400800" y="13373100"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="553" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C7758D-3CAF-4640-BEB5-97782369CDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="13706475"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="554" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB1C746-B5AF-4C79-A44A-CF92C8678C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="13716000"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="555" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54B7947-C2D6-4B08-8996-733032454A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6400800" y="13706475"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="556" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AE8DCC-4C22-4448-9966-1DD7B2C015D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="14039850"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="557" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09101BD6-C86D-4822-8455-6D5366D0233E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="14049375"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="558" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49173EB-15F1-433A-95D0-B60A177D1C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="14030325"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="559" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B213B8F-BA96-403A-8EA3-AD2D0BC66412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="14373225"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="560" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72664F0-6218-4E31-911B-F8080AE39CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="14382750"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="561" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710A1024-A2BF-4D72-B412-CFD45DC8B187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6400800" y="14373225"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="562" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDB828C-E133-42DC-989E-159A974638D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="14706600"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="563" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB75787-EDDB-4802-A13F-DF41C1A78CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="14716125"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="564" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF582E3-6F8F-4C8B-99DF-520252CC6727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="14697075"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="565" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DCBD2B-4398-4619-88C6-DC3105A5A52F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="15039975"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="566" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5DE18A-C751-4D6F-B11D-D213534F69FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="15049500"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="567" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C9BB8C-EB9A-4A7D-9C96-7CF3B867AB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="15030450"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="568" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838EA223-BE95-40E4-A6B4-90BCFEC07583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="15373350"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="569" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B7F91D-847F-45FB-9081-27ED06A64381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="15382875"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="570" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E4D1B0-ECAF-401C-A360-67DD1A60491D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="15363825"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="571" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991A61D1-03F8-48D7-A52F-B3A81158FA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="15706725"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="572" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B270CAB-BEEB-4055-AAF0-BE95D018C7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="15716250"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="573" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D2739D-23AC-4AA8-802A-F0512DF82B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="15697200"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="574" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD648CE4-3A41-4EBC-ACF8-FD037FCECC8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="16040100"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="575" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1282F4-C6AB-43A3-905E-1AA33A324F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="16049625"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="576" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4CB379-86A8-4A3D-86A9-3DAA683CCF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="16030575"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="577" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D48EE3-4AD8-47C5-BB56-133C800DE005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="16373475"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="578" name="Imagen 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B74A09D-74F1-4095-9CDB-7F8D32D8616A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="16383000"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="579" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726E267D-A856-4BC2-8D3A-574C637D12A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="16363950"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="580" name="Imagen 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A908345C-B6E1-43FC-B72E-A0EFF24D38D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="16706850"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="581" name="Imagen 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457E3944-C2F9-4B9D-949B-CD3BDFE6BEBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="16716375"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="582" name="Imagen 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5BDBA5-4023-41FE-B638-4F2A0F81D262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="17040225"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="583" name="Imagen 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B225AC2F-CA72-49A6-B393-3651D944E6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="17049750"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="584" name="Imagen 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659DF903-9A11-4BE0-91C1-B0FCBC4E1E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="17030700"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="585" name="Imagen 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8917D6C0-0BD1-497A-AFA0-7136F196EA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="16716375"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="586" name="Imagen 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2623ADAE-53B6-4098-ADDF-6E22B31C3FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="17373600"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="587" name="Imagen 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D82F1DB-B34B-485D-AD8D-F02AFB4E6F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="17383125"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="588" name="Imagen 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1C9406-1232-4752-A8C7-CAA519CA4A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="17383125"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="589" name="Imagen 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B04B681-0AFB-45AC-9DDA-F68FE5E3DE22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="17706975"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="590" name="Imagen 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B10B07C-83E4-43AC-AF47-58D7941FB177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="17716500"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="591" name="Imagen 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C048E3-7C1F-4B3C-8E2C-1C33BE95ADEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="17697450"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="592" name="Imagen 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FA11AB-C50F-4C3E-BC8A-BDF95D85E48E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="18040350"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="593" name="Imagen 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BC6A3B-0617-48D1-B0AF-A318CCC3BC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="18049875"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="594" name="Imagen 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998B540A-D042-448F-9787-124CEE115908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="18049875"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="595" name="Imagen 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C438EA-B71D-44F1-883F-27A36B4C82F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="18373725"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="596" name="Imagen 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA0523-BF31-48FE-A0F9-1EB7427D62FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="18383250"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="597" name="Imagen 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBE6C6F-5508-444B-85C2-A3E571F815D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="18383250"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="598" name="Imagen 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B003491-AF13-44D6-9369-62B859975C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="18707100"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="599" name="Imagen 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA1F46E-5354-4751-86E5-35EF348CB030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="18716625"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="600" name="Imagen 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8F709E-2F3E-4E17-ACEA-356D00B61D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="18697575"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="601" name="Imagen 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DCF218-CC6F-4BA8-B7D4-93876A5C2F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="19040475"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="602" name="Imagen 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7F3AA7-A31F-44EF-A15D-7EEFBE1AFBF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="19050000"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="603" name="Imagen 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90D4380-D066-4B8F-8298-D9E7BF31EEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="19030950"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="604" name="Imagen 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EDAFC5-DDE7-40E8-A963-AD64C49E8269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="19373850"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="605" name="Imagen 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC945746-650F-41D9-AF3A-1EF111E07644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="19383375"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="606" name="Imagen 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D318A1-0EE5-4956-8A1C-DC81B09EBC8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="19364325"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="607" name="Imagen 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2ED469-1271-43CA-BD37-8ABFDE249CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="19707225"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="608" name="Imagen 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D09721-ED1A-4A1E-A676-CEB97426FCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="19716750"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="609" name="Imagen 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE72E6F0-EE64-485C-975F-5FB6A5489B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="19697700"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="610" name="Imagen 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37D6BA5-6CFA-4FAE-8221-7E6CA60C7391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="20040600"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="611" name="Imagen 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C913C16-FC56-4F51-8BE4-5F8059C6BB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="20050125"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="612" name="Imagen 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9B9CA9-D810-4173-A180-4ADE08BF8F9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="20031075"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="613" name="Imagen 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1817D2F-7A66-4CB8-B85F-CDD7E2AF81F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="20373975"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="614" name="Imagen 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE6FC2D-C522-4E6B-A933-D7BFD84F52C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="20383500"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="615" name="Imagen 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED368B-39DA-4171-AA0C-AEAB06BC3CAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="20364450"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="616" name="Imagen 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92292D63-1D60-45AE-A3CC-5ABFA2AAFC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="20707350"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="617" name="Imagen 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB24B962-60A8-4F54-8702-FFC70957A7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="20716875"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="618" name="Imagen 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D354FA3E-8B5C-4C9C-BE0E-5D1217050916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="20697825"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="619" name="Imagen 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B994F5C6-F3BC-4CE6-B1F9-962875021927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="21040725"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="620" name="Imagen 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE17E424-4394-414B-B8CA-EAEF715D4DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="21050250"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="621" name="Imagen 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C966F1-8A8D-450A-A3D3-F1AD87FF280D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="21031200"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="622" name="Imagen 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54E7E68-7265-49DF-A2A1-2C78BDB9AA22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="21374100"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="623" name="Imagen 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BE2D26-41A2-43C1-B66C-841746769893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="21383625"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="624" name="Imagen 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780755E7-B748-4F60-B5C0-1135AD07662E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="21364575"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="625" name="Imagen 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EEF413-0EC5-44A6-993D-C6B2FF1D7A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="21707475"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="626" name="Imagen 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB42D24-EA7F-47B5-BE89-E7CFBA4284A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="21717000"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="627" name="Imagen 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D03A5D-E4E3-4506-8B98-2EB574B9B178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="21697950"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="628" name="Imagen 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ECE829-EEC9-4F66-B46E-B0F0119E1714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="22040850"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="629" name="Imagen 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38108EB-CDB5-47EC-A826-46C70135C113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="22050375"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="630" name="Imagen 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AE1A13-72DD-4A01-A311-23E84850271A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="22031325"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="631" name="Imagen 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2673CD26-4BBC-4692-B7C1-1686C4398B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="22374225"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="632" name="Imagen 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563A361F-0DBB-4260-984D-DBC02E2B8B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="22383750"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="633" name="Imagen 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A20CE0-D845-4485-BA2D-9160B7FC29A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="22383750"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="634" name="Imagen 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EDC678-FD6A-4C48-9FC3-D1C9B7427D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="22707600"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="635" name="Imagen 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351F600A-A5DE-47C1-852F-D7246C405814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="22717125"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="636" name="Imagen 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BB2FA6-84EB-4B97-B5B2-02FD41558809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="22698075"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="637" name="Imagen 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6BBF4F-CCD8-4ED1-9E5A-9128D7DBF9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="23040975"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="638" name="Imagen 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02E789E-17CF-47CA-805B-0B505B48BB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="23050500"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="639" name="Imagen 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8804110A-047C-4E2D-BB28-B6AB2051E4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391275" y="23031450"/>
+          <a:ext cx="295275" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="640" name="Imagen 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1945F3D6-1FC6-49B9-A452-6E1394DFEFDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="23374350"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="641" name="Imagen 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEA144C-AA31-4A40-A4B7-3678F9F2BE41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="23383875"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="642" name="Imagen 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A96795-87C8-4AEB-A87A-AE321FB7DE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="23383875"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="643" name="Imagen 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5C2DB7-5D9D-41C5-9367-D793BC0C54DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="23707725"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="644" name="Imagen 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05FC009-6564-478E-AD87-3976738B923C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="23717250"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="645" name="Imagen 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E456EA-5176-4F0D-8410-353F154EC587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="23717250"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="646" name="Imagen 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0F9F51-E7B0-480B-9003-2D55BDDACE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="24041100"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="647" name="Imagen 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE190994-3BED-43A7-B831-DC75D2E50F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="24050625"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="648" name="Imagen 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEC9082-99B9-4DFA-BDC2-D395BBF21637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="24050625"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="649" name="Imagen 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D24545-86DB-4618-B827-2180F99D7A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="24374475"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="650" name="Imagen 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA99767-63C7-4F3C-9CBF-9E0E77522EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4991100" y="24384000"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="651" name="Imagen 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947B5B8A-6D62-4C00-B2E2-394B41FB48FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="24384000"/>
+          <a:ext cx="257175" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,7 +7355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2F3CCD-3DE1-4D13-AD96-4E84CCAA0BEB}">
   <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B44" sqref="B44:C48"/>
     </sheetView>
   </sheetViews>
@@ -765,291 +7372,291 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="H3" s="21" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="H3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="H5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="H10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="H11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -1091,69 +7698,53 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="15" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
@@ -1166,14 +7757,459 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A3B334-DA8A-4E45-A233-E6076FC15174}">
+  <dimension ref="A1:D146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+    </row>
+    <row r="17" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+    </row>
+    <row r="29" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+    </row>
+    <row r="36" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+    </row>
+    <row r="38" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>